--- a/src/main/java/resources/Cadastro.xlsx
+++ b/src/main/java/resources/Cadastro.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.souza\Documents\Marcos\Java\Marcos\ProjetoAvaliacaoTDD\workspace\projeto\src\main\java\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5852F4C7-58AC-4B54-9CD2-5A5F6F8379DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{981C860C-3F7E-455B-9974-CB65F85FEE39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15405" windowHeight="11340" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Home" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -469,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174BA2E0-7519-4B50-B69F-7AD84DC24A92}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -577,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA487C3-8D29-44F6-BCB8-1158C33B294D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/resources/Cadastro.xlsx
+++ b/src/main/java/resources/Cadastro.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{981C860C-3F7E-455B-9974-CB65F85FEE39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.souza\Documents\ProjetoBDD\workspace\ProjetoBDD\src\main\java\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FACAC5-8592-474C-A115-0149F5665380}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15405" windowHeight="11340" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Home" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,13 +89,13 @@
     <t>antsa@email.com</t>
   </si>
   <si>
-    <t>Jefrey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Item inexistente </t>
   </si>
   <si>
     <t>Agua Mineral</t>
+  </si>
+  <si>
+    <t>kikiki</t>
   </si>
 </sst>
 </file>
@@ -514,7 +518,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -589,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -601,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/src/main/java/resources/Cadastro.xlsx
+++ b/src/main/java/resources/Cadastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.souza\Documents\ProjetoBDD\workspace\ProjetoBDD\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FACAC5-8592-474C-A115-0149F5665380}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA86D9-AC7F-4FB3-B010-6E489783B2A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>Agua Mineral</t>
   </si>
   <si>
-    <t>kikiki</t>
+    <t>fhjsbjdbjb</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/resources/Cadastro.xlsx
+++ b/src/main/java/resources/Cadastro.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.souza\Documents\ProjetoBDD\workspace\ProjetoBDD\src\main\java\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA86D9-AC7F-4FB3-B010-6E489783B2A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{94B26771-7A67-4C4E-814B-D78ABACCC806}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15405" windowHeight="11340" activeTab="1" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Home" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +91,7 @@
     <t>Agua Mineral</t>
   </si>
   <si>
-    <t>fhjsbjdbjb</t>
+    <t>zkidasqe</t>
   </si>
 </sst>
 </file>
@@ -469,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174BA2E0-7519-4B50-B69F-7AD84DC24A92}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -577,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA487C3-8D29-44F6-BCB8-1158C33B294D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/resources/Cadastro.xlsx
+++ b/src/main/java/resources/Cadastro.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{94B26771-7A67-4C4E-814B-D78ABACCC806}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.souza\Documents\ProjetoBDD\workspace\ProjetoBDD\src\main\java\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739ECCE-B002-4767-857A-2252FC838BD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15405" windowHeight="11340" activeTab="1" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Home" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,7 +95,7 @@
     <t>Agua Mineral</t>
   </si>
   <si>
-    <t>zkidasqe</t>
+    <t>adSDADF</t>
   </si>
 </sst>
 </file>
@@ -465,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174BA2E0-7519-4B50-B69F-7AD84DC24A92}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -573,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA487C3-8D29-44F6-BCB8-1158C33B294D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/resources/Cadastro.xlsx
+++ b/src/main/java/resources/Cadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.souza\Documents\ProjetoBDD\workspace\ProjetoBDD\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739ECCE-B002-4767-857A-2252FC838BD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA47A8-10E0-4063-B9E5-BF550E8AECC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{E048A342-EB01-4E79-B803-099FC3174510}"/>
   </bookViews>
